--- a/Chapter 4/Table S4-2 Domain Knowledge Components (Three lists of index words).xlsx
+++ b/Chapter 4/Table S4-2 Domain Knowledge Components (Three lists of index words).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\OneDrive - The University of Hong Kong\JME amendments\Manuscript on news mining 1b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenghua/Documents/GitHub/Supplemental-Materials-of-the-Thesis/Chapter 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="8_{B71C3D48-EFB3-4FE8-85B6-A0E40424B8B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DEB2401F-AA29-458E-AF53-44A514C7BABD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3938C4E-E75C-224B-8FA8-ED2BBE265888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="797" activeTab="4" xr2:uid="{4EC5BC5F-5767-4CB2-B7CB-32ECC98FCFFE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="797" activeTab="4" xr2:uid="{4EC5BC5F-5767-4CB2-B7CB-32ECC98FCFFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Potential affected infra." sheetId="3" r:id="rId1"/>
@@ -4829,11 +4829,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4846,7 +4846,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4913,7 +4913,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -5407,22 +5407,22 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="25">
       <c r="A1" s="26" t="s">
         <v>307</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="17">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="17">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="17">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="17">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="17">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5741,19 +5741,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="16">
       <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="16">
       <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="16">
       <c r="B35" s="4"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -5776,23 +5776,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="60.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="18.42578125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.1640625" style="6"/>
+    <col min="2" max="2" width="60.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="6"/>
+    <col min="4" max="4" width="18.5" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="25">
       <c r="A1" s="26" t="s">
         <v>308</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -5820,7 +5820,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="17">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="17">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="17">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="17">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="17">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="17">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="17">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="17">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="17">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="17">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="17">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="17">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="17">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="17">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -6207,18 +6207,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="44.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="13"/>
+    <col min="2" max="2" width="44.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="14" style="13" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="5" width="57.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25">
       <c r="A1" s="26" t="s">
         <v>309</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -6824,19 +6824,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="85.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="8"/>
+    <col min="2" max="2" width="85.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="22" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="5" width="31.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="10"/>
+    <col min="8" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25">
       <c r="A1" s="26" t="s">
         <v>310</v>
       </c>
@@ -6846,7 +6846,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14">
       <c r="A36" s="8">
         <v>36</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14">
       <c r="A37" s="8">
         <v>37</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14">
       <c r="A38" s="8">
         <v>38</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14">
       <c r="A39" s="8">
         <v>39</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14">
       <c r="A40" s="8">
         <v>40</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14">
       <c r="A41" s="8">
         <v>41</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14">
       <c r="A42" s="8">
         <v>42</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14">
       <c r="A43" s="8">
         <v>43</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14">
       <c r="A44" s="8">
         <v>46</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14">
       <c r="A45" s="8">
         <v>47</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14">
       <c r="A46" s="8">
         <v>48</v>
       </c>
@@ -7736,19 +7736,19 @@
   <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N3" sqref="N3:N168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="41" style="6" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="6"/>
+    <col min="2" max="12" width="9.1640625" style="6"/>
     <col min="13" max="13" width="41" style="25" customWidth="1"/>
     <col min="14" max="14" width="50" style="25" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="23">
       <c r="A1" s="30" t="s">
         <v>311</v>
       </c>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="23">
       <c r="A2" s="24" t="s">
         <v>390</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="17">
       <c r="A3" s="25" t="s">
         <v>398</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>403</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="25" t="s">
         <v>413</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17">
       <c r="A6" s="25" t="s">
         <v>416</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="17">
       <c r="A7" s="25" t="s">
         <v>418</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="25" t="s">
         <v>427</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="25" t="s">
         <v>429</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="25" t="s">
         <v>432</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="25" t="s">
         <v>412</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="17">
       <c r="A12" s="25" t="s">
         <v>436</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="25" t="s">
         <v>438</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="25" t="s">
         <v>443</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="17">
       <c r="A15" s="25" t="s">
         <v>449</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="25" t="s">
         <v>457</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="17">
       <c r="A17" s="25" t="s">
         <v>460</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="25" t="s">
         <v>461</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="17">
       <c r="A19" s="25" t="s">
         <v>464</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="17">
       <c r="A20" s="25" t="s">
         <v>466</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="17">
       <c r="A21" s="25" t="s">
         <v>469</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" s="25" t="s">
         <v>471</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="17">
       <c r="A23" s="25" t="s">
         <v>475</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="17">
       <c r="A24" s="25" t="s">
         <v>477</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="17">
       <c r="A25" s="25" t="s">
         <v>478</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16.25" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>479</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" s="25" t="s">
         <v>482</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="17">
       <c r="A28" s="25" t="s">
         <v>487</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" s="25" t="s">
         <v>488</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="17">
       <c r="A30" s="25" t="s">
         <v>490</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="17">
       <c r="A31" s="25" t="s">
         <v>493</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="17">
       <c r="A32" s="25" t="s">
         <v>496</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17">
       <c r="A33" s="25" t="s">
         <v>497</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17">
       <c r="A34" s="25" t="s">
         <v>500</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17">
       <c r="A35" s="25" t="s">
         <v>504</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17">
       <c r="A36" s="25" t="s">
         <v>505</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17">
       <c r="A37" s="25" t="s">
         <v>506</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17">
       <c r="A38" s="25" t="s">
         <v>509</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="17">
       <c r="A39" s="25" t="s">
         <v>511</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="17">
       <c r="A40" s="25" t="s">
         <v>514</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="17">
       <c r="A41" s="25" t="s">
         <v>521</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="17">
       <c r="A42" s="25" t="s">
         <v>522</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="17">
       <c r="A43" s="25" t="s">
         <v>525</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="17">
       <c r="A44" s="25" t="s">
         <v>528</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="17">
       <c r="A45" s="25" t="s">
         <v>530</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="17">
       <c r="A46" s="25" t="s">
         <v>533</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="17">
       <c r="A47" s="25" t="s">
         <v>535</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="17">
       <c r="A48" s="25" t="s">
         <v>527</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="17">
       <c r="A49" s="25" t="s">
         <v>536</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="25" t="s">
         <v>538</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="17">
       <c r="A51" s="25" t="s">
         <v>540</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="17">
       <c r="A52" s="25" t="s">
         <v>543</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="17">
       <c r="A53" s="25" t="s">
         <v>546</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="17">
       <c r="A54" s="25" t="s">
         <v>547</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="17">
       <c r="A55" s="25" t="s">
         <v>548</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="17">
       <c r="A56" s="25" t="s">
         <v>550</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="17">
       <c r="A57" s="25" t="s">
         <v>552</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="17">
       <c r="A58" s="25" t="s">
         <v>553</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="17">
       <c r="A59" s="25" t="s">
         <v>555</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="17">
       <c r="A60" s="25" t="s">
         <v>557</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="17">
       <c r="A61" s="25" t="s">
         <v>560</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="17">
       <c r="A62" s="25" t="s">
         <v>563</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="17">
       <c r="M63" s="25" t="s">
         <v>479</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="17">
       <c r="M64" s="25" t="s">
         <v>479</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:14" ht="17">
       <c r="M65" s="25" t="s">
         <v>483</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:14" ht="17">
       <c r="M66" s="25" t="s">
         <v>483</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:14" ht="17">
       <c r="M67" s="25" t="s">
         <v>485</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:14" ht="17">
       <c r="M68" s="25" t="s">
         <v>482</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:14" ht="17">
       <c r="M69" s="25" t="s">
         <v>564</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:14" ht="17">
       <c r="M70" s="25" t="s">
         <v>487</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:14" ht="17">
       <c r="M71" s="25" t="s">
         <v>420</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="13:14" ht="17">
       <c r="M72" s="25" t="s">
         <v>488</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="13:14" ht="17">
       <c r="M73" s="25" t="s">
         <v>411</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:14" ht="17">
       <c r="M74" s="25" t="s">
         <v>492</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="13:14" ht="17">
       <c r="M75" s="25" t="s">
         <v>491</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="13:14" ht="17">
       <c r="M76" s="25" t="s">
         <v>490</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="13:14" ht="17">
       <c r="M77" s="25" t="s">
         <v>425</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="13:14" ht="17">
       <c r="M78" s="25" t="s">
         <v>424</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="13:14" ht="17">
       <c r="M79" s="25" t="s">
         <v>423</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="13:14" ht="17">
       <c r="M80" s="25" t="s">
         <v>476</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:14" ht="17">
       <c r="M81" s="25" t="s">
         <v>470</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:14" ht="17">
       <c r="M82" s="25" t="s">
         <v>453</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="13:14" ht="17">
       <c r="M83" s="25" t="s">
         <v>493</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:14" ht="17">
       <c r="M84" s="25" t="s">
         <v>496</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:14" ht="17">
       <c r="M85" s="25" t="s">
         <v>498</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:14" ht="17">
       <c r="M86" s="25" t="s">
         <v>497</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:14" ht="17">
       <c r="M87" s="25" t="s">
         <v>500</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:14" ht="17">
       <c r="M88" s="25" t="s">
         <v>565</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:14" ht="17">
       <c r="M89" s="25" t="s">
         <v>566</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="13:14" ht="17">
       <c r="M90" s="25" t="s">
         <v>504</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="13:14" ht="17">
       <c r="M91" s="25" t="s">
         <v>428</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="92" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="13:14" ht="17">
       <c r="M92" s="25" t="s">
         <v>505</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="13:14" ht="17">
       <c r="M93" s="25" t="s">
         <v>516</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="13:14" ht="17">
       <c r="M94" s="25" t="s">
         <v>512</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="13:14" ht="17">
       <c r="M95" s="25" t="s">
         <v>506</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="96" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="13:14" ht="17">
       <c r="M96" s="25" t="s">
         <v>509</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="97" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="13:14" ht="17">
       <c r="M97" s="25" t="s">
         <v>515</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="13:14" ht="17">
       <c r="M98" s="25" t="s">
         <v>511</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="13:14" ht="17">
       <c r="M99" s="25" t="s">
         <v>514</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="100" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:14" ht="17">
       <c r="M100" s="25" t="s">
         <v>494</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="13:14" ht="17">
       <c r="M101" s="25" t="s">
         <v>521</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="13:14" ht="17">
       <c r="M102" s="25" t="s">
         <v>523</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="13:14" ht="17">
       <c r="M103" s="25" t="s">
         <v>522</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="13:14" ht="17">
       <c r="M104" s="25" t="s">
         <v>524</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="13:14" ht="17">
       <c r="M105" s="25" t="s">
         <v>526</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="13:14" ht="17">
       <c r="M106" s="25" t="s">
         <v>525</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="13:14" ht="17">
       <c r="M107" s="25" t="s">
         <v>529</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="108" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="13:14" ht="17">
       <c r="M108" s="25" t="s">
         <v>528</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="13:14" ht="17">
       <c r="M109" s="25" t="s">
         <v>532</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="13:14" ht="17">
       <c r="M110" s="25" t="s">
         <v>531</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="13:14" ht="17">
       <c r="M111" s="25" t="s">
         <v>530</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="13:14" ht="17">
       <c r="M112" s="25" t="s">
         <v>533</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="13:14" ht="17">
       <c r="M113" s="25" t="s">
         <v>535</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="13:14" ht="17">
       <c r="M114" s="25" t="s">
         <v>473</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="13:14" ht="17">
       <c r="M115" s="25" t="s">
         <v>537</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="116" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="13:14" ht="17">
       <c r="M116" s="25" t="s">
         <v>537</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="117" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="13:14" ht="17">
       <c r="M117" s="25" t="s">
         <v>536</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="118" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="13:14" ht="17">
       <c r="M118" s="25" t="s">
         <v>539</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="13:14" ht="17">
       <c r="M119" s="25" t="s">
         <v>538</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="120" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="13:14" ht="17">
       <c r="M120" s="25" t="s">
         <v>502</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="13:14" ht="17">
       <c r="M121" s="25" t="s">
         <v>540</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="13:14" ht="17">
       <c r="M122" s="25" t="s">
         <v>541</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="123" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="13:14" ht="17">
       <c r="M123" s="25" t="s">
         <v>441</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="124" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="13:14" ht="17">
       <c r="M124" s="25" t="s">
         <v>551</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="13:14" ht="17">
       <c r="M125" s="25" t="s">
         <v>543</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="13:14" ht="17">
       <c r="M126" s="25" t="s">
         <v>542</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="127" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="13:14" ht="17">
       <c r="M127" s="25" t="s">
         <v>562</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="13:14" ht="17">
       <c r="M128" s="25" t="s">
         <v>410</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:14" ht="17">
       <c r="M129" s="25" t="s">
         <v>409</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:14" ht="17">
       <c r="M130" s="25" t="s">
         <v>507</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:14" ht="17">
       <c r="M131" s="25" t="s">
         <v>467</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="132" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="13:14" ht="17">
       <c r="M132" s="25" t="s">
         <v>407</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:14" ht="17">
       <c r="M133" s="25" t="s">
         <v>455</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:14" ht="17">
       <c r="M134" s="25" t="s">
         <v>546</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:14" ht="17">
       <c r="M135" s="25" t="s">
         <v>462</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:14" ht="17">
       <c r="M136" s="25" t="s">
         <v>463</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:14" ht="17">
       <c r="M137" s="25" t="s">
         <v>567</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:14" ht="17">
       <c r="M138" s="25" t="s">
         <v>508</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="139" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:14" ht="17">
       <c r="M139" s="25" t="s">
         <v>422</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:14" ht="17">
       <c r="M140" s="25" t="s">
         <v>547</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:14" ht="17">
       <c r="M141" s="25" t="s">
         <v>549</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="142" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="13:14" ht="17">
       <c r="M142" s="25" t="s">
         <v>548</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="13:14" ht="17">
       <c r="M143" s="25" t="s">
         <v>550</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="144" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="13:14" ht="17">
       <c r="M144" s="25" t="s">
         <v>552</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="13:14" ht="17">
       <c r="M145" s="25" t="s">
         <v>554</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="13:14" ht="17">
       <c r="M146" s="25" t="s">
         <v>553</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:14" ht="17">
       <c r="M147" s="25" t="s">
         <v>454</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="148" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:14" ht="17">
       <c r="M148" s="25" t="s">
         <v>517</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:14" ht="17">
       <c r="M149" s="25" t="s">
         <v>559</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="150" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:14" ht="17">
       <c r="M150" s="25" t="s">
         <v>556</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="151" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:14" ht="17">
       <c r="M151" s="25" t="s">
         <v>555</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:14" ht="17">
       <c r="M152" s="25" t="s">
         <v>499</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="13:14" ht="17">
       <c r="M153" s="25" t="s">
         <v>558</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="154" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="13:14" ht="17">
       <c r="M154" s="25" t="s">
         <v>557</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="155" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="13:14" ht="17">
       <c r="M155" s="25" t="s">
         <v>401</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="13:14" ht="17">
       <c r="M156" s="25" t="s">
         <v>402</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="157" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:14" ht="17">
       <c r="M157" s="25" t="s">
         <v>561</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="13:14" ht="17">
       <c r="M158" s="25" t="s">
         <v>560</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="159" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="13:14" ht="17">
       <c r="M159" s="25" t="s">
         <v>426</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="13:14" ht="17">
       <c r="M160" s="25" t="s">
         <v>534</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:14" ht="17">
       <c r="M161" s="25" t="s">
         <v>518</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="162" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:14" ht="17">
       <c r="M162" s="25" t="s">
         <v>520</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="13:14" ht="17">
       <c r="M163" s="25" t="s">
         <v>486</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="13:14" ht="17">
       <c r="M164" s="25" t="s">
         <v>544</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="165" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="13:14" ht="17">
       <c r="M165" s="25" t="s">
         <v>519</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="166" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="13:14" ht="17">
       <c r="M166" s="25" t="s">
         <v>481</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="13:14" ht="17">
       <c r="M167" s="25" t="s">
         <v>551</v>
       </c>
@@ -9978,12 +9978,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="13:14" ht="17">
       <c r="M168" s="25" t="s">
         <v>568</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>465</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -10002,21 +10002,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E99763C224E0AE42A804E96A85991A5D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28befdacd1a87c5430d5c25ba29afe9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9149fbb2-0dcf-447e-87d9-72d720a13d6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="260a1ec1942f49bdee6377592ed01e3a" ns3:_="">
     <xsd:import namespace="9149fbb2-0dcf-447e-87d9-72d720a13d6e"/>
@@ -10186,10 +10171,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78D62564-82BA-4459-BC45-2CF2E1E650FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF8E485-35BA-42C2-A77C-BE0F45D80F80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9149fbb2-0dcf-447e-87d9-72d720a13d6e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10211,19 +10221,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF8E485-35BA-42C2-A77C-BE0F45D80F80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78D62564-82BA-4459-BC45-2CF2E1E650FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9149fbb2-0dcf-447e-87d9-72d720a13d6e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>